--- a/argus400/doc/Argus400.xlsx
+++ b/argus400/doc/Argus400.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richarde/Library/Mobile Documents/com~apple~CloudDocs/Documents/Development/git/ferranti-argus/argus400/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338B2EA9-F1EC-4547-BDBD-98C22956F43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00928D3F-AA97-9949-BD8E-2A589ECFD0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="126">
   <si>
     <t>Opcode</t>
   </si>
@@ -277,9 +277,6 @@
     <t>Memory Address</t>
   </si>
   <si>
-    <t>Source of Zeroes</t>
-  </si>
-  <si>
     <t>Q register</t>
   </si>
   <si>
@@ -392,6 +389,30 @@
   </si>
   <si>
     <t>Alternative Assembler Form</t>
+  </si>
+  <si>
+    <t>Unconditional Jump</t>
+  </si>
+  <si>
+    <t>The jp &lt;nnnn&gt; instruction is an indirect jump, setting the PC to the contents of mem[&lt;nnnn&gt;] rather than &lt;nnnn&gt; itself</t>
+  </si>
+  <si>
+    <t>To do a direct jump use the conditional form and use accumulator 0 which always returns zeroes</t>
+  </si>
+  <si>
+    <t>JPZ r0, &lt;nnnn&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4] </t>
+  </si>
+  <si>
+    <t>&lt;reg&gt;[4]</t>
+  </si>
+  <si>
+    <t>r0 always returns 0s except for jpbusy when it returns the state of busy line 0</t>
+  </si>
+  <si>
+    <t>Source of Zeroes (and Acc 0)</t>
   </si>
 </sst>
 </file>
@@ -410,18 +431,21 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFD9D9D9"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,6 +453,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -644,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -657,7 +682,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -677,25 +701,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,10 +936,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -943,10 +965,10 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="31"/>
+      <c r="I1" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -970,14 +992,14 @@
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="31" t="s">
+      <c r="H2" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>97</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1007,10 +1029,10 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1040,10 +1062,10 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1073,10 +1095,10 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1106,10 +1128,10 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1141,10 +1163,10 @@
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1176,10 +1198,10 @@
         <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1211,10 +1233,10 @@
         <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1246,10 +1268,10 @@
         <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1279,10 +1301,10 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1312,10 +1334,10 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1345,10 +1367,10 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1378,10 +1400,10 @@
       </c>
       <c r="H14" s="6"/>
       <c r="I14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1411,10 +1433,10 @@
       </c>
       <c r="H15" s="6"/>
       <c r="I15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1444,10 +1466,10 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1477,10 +1499,10 @@
       </c>
       <c r="H17" s="6"/>
       <c r="I17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1510,10 +1532,10 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1543,10 +1565,10 @@
       </c>
       <c r="H19" s="6"/>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1576,10 +1598,10 @@
       </c>
       <c r="H20" s="6"/>
       <c r="I20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1609,10 +1631,10 @@
       </c>
       <c r="H21" s="6"/>
       <c r="I21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1642,10 +1664,10 @@
       </c>
       <c r="H22" s="6"/>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1673,10 +1695,10 @@
       </c>
       <c r="H23" s="6"/>
       <c r="I23" t="s">
-        <v>100</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1696,7 +1718,7 @@
         <v>56</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>10</v>
@@ -1706,10 +1728,10 @@
       </c>
       <c r="H24" s="6"/>
       <c r="I24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1739,10 +1761,10 @@
       </c>
       <c r="H25" s="6"/>
       <c r="I25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1770,10 +1792,10 @@
       </c>
       <c r="H26" s="6"/>
       <c r="I26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1803,10 +1825,10 @@
       </c>
       <c r="H27" s="6"/>
       <c r="I27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1836,10 +1858,10 @@
       </c>
       <c r="H28" s="6"/>
       <c r="I28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1869,10 +1891,10 @@
       </c>
       <c r="H29" s="6"/>
       <c r="I29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1902,10 +1924,10 @@
       </c>
       <c r="H30" s="6"/>
       <c r="I30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1926,8 +1948,8 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="33" t="s">
-        <v>105</v>
+      <c r="G31" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="H31" s="8"/>
     </row>
@@ -1981,10 +2003,10 @@
       </c>
       <c r="H33" s="6"/>
       <c r="I33" t="s">
+        <v>99</v>
+      </c>
+      <c r="J33" t="s">
         <v>100</v>
-      </c>
-      <c r="J33" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2012,12 +2034,12 @@
       <c r="G34" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="32"/>
-      <c r="I34" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>100</v>
+      <c r="H34" s="28"/>
+      <c r="I34" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2042,30 +2064,38 @@
       <c r="A37" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="B37" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>107</v>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2081,247 +2111,247 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="13" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>93</v>
+      <c r="C2" s="23" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="str">
-        <f>OCT2HEX(B3,4)</f>
+      <c r="A3" s="16" t="str">
+        <f t="shared" ref="A3:A19" si="0">OCT2HEX(B3,4)</f>
         <v>0000</v>
       </c>
-      <c r="B3" s="18" t="str">
+      <c r="B3" s="17" t="str">
         <f>DEC2OCT(0,5)</f>
         <v>00000</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>80</v>
+      <c r="C3" s="24" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="str">
-        <f>OCT2HEX(B4,4)</f>
+      <c r="A4" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>0001</v>
       </c>
-      <c r="B4" s="24" t="str">
+      <c r="B4" s="13" t="str">
         <f>DEC2OCT(1,5)</f>
         <v>00001</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>82</v>
+      <c r="C4" s="25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="23" t="str">
-        <f>OCT2HEX(B5,4)</f>
+      <c r="A5" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>0002</v>
       </c>
-      <c r="B5" s="24" t="str">
+      <c r="B5" s="13" t="str">
         <f>DEC2OCT(2,5)</f>
         <v>00002</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>81</v>
+      <c r="C5" s="25" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="str">
-        <f>OCT2HEX(B6,4)</f>
+      <c r="A6" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>0003</v>
       </c>
-      <c r="B6" s="24" t="str">
+      <c r="B6" s="13" t="str">
         <f>DEC2OCT(3,5)</f>
         <v>00003</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>83</v>
+      <c r="C6" s="25" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="str">
-        <f>OCT2HEX(B7,4)</f>
+      <c r="A7" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>0004</v>
       </c>
-      <c r="B7" s="20" t="str">
+      <c r="B7" s="19" t="str">
         <f>DEC2OCT(4,5)</f>
         <v>00004</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>84</v>
+      <c r="C7" s="26" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="str">
-        <f>OCT2HEX(B8,4)</f>
+      <c r="A8" s="16" t="str">
+        <f t="shared" si="0"/>
         <v>0005</v>
       </c>
-      <c r="B8" s="18" t="str">
+      <c r="B8" s="17" t="str">
         <f>DEC2OCT(5,5)</f>
         <v>00005</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>0FFF</v>
+      </c>
+      <c r="B9" s="19">
+        <v>7777</v>
+      </c>
+      <c r="C9" s="35"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="B10" s="17">
+        <v>10000</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="str">
-        <f>OCT2HEX(B9,4)</f>
-        <v>0FFF</v>
-      </c>
-      <c r="B9" s="20">
-        <v>7777</v>
-      </c>
-      <c r="C9" s="30"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="str">
-        <f>OCT2HEX(B10,4)</f>
-        <v>1000</v>
-      </c>
-      <c r="B10" s="18">
-        <v>10000</v>
-      </c>
-      <c r="C10" s="26" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="B11" s="17">
+        <v>10001</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="str">
-        <f>OCT2HEX(B11,4)</f>
-        <v>1001</v>
-      </c>
-      <c r="B11" s="18">
-        <v>10001</v>
-      </c>
-      <c r="C11" s="29" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>1007</v>
+      </c>
+      <c r="B12" s="19">
+        <v>10007</v>
+      </c>
+      <c r="C12" s="35"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>1008</v>
+      </c>
+      <c r="B13" s="13">
+        <v>10010</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="str">
-        <f>OCT2HEX(B12,4)</f>
-        <v>1007</v>
-      </c>
-      <c r="B12" s="20">
-        <v>10007</v>
-      </c>
-      <c r="C12" s="30"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="str">
-        <f>OCT2HEX(B13,4)</f>
-        <v>1008</v>
-      </c>
-      <c r="B13" s="24">
-        <v>10010</v>
-      </c>
-      <c r="C13" s="27" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>1010</v>
+      </c>
+      <c r="B14" s="13">
+        <v>10020</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="23" t="str">
-        <f>OCT2HEX(B14,4)</f>
-        <v>1010</v>
-      </c>
-      <c r="B14" s="24">
-        <v>10020</v>
-      </c>
-      <c r="C14" s="27" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>1FFF</v>
+      </c>
+      <c r="B15" s="19">
+        <v>17777</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="19" t="str">
-        <f>OCT2HEX(B15,4)</f>
-        <v>1FFF</v>
-      </c>
-      <c r="B15" s="20">
-        <v>17777</v>
-      </c>
-      <c r="C15" s="28" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="B16" s="17">
+        <v>20000</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="str">
-        <f>OCT2HEX(B16,4)</f>
-        <v>2000</v>
-      </c>
-      <c r="B16" s="18">
-        <v>20000</v>
-      </c>
-      <c r="C16" s="26" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2FFF</v>
+      </c>
+      <c r="B17" s="19">
+        <v>27777</v>
+      </c>
+      <c r="C17" s="20"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="B18" s="17">
+        <v>30000</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="19" t="str">
-        <f>OCT2HEX(B17,4)</f>
-        <v>2FFF</v>
-      </c>
-      <c r="B17" s="20">
-        <v>27777</v>
-      </c>
-      <c r="C17" s="21"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="str">
-        <f>OCT2HEX(B18,4)</f>
-        <v>3000</v>
-      </c>
-      <c r="B18" s="18">
-        <v>30000</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="19" t="str">
-        <f>OCT2HEX(B19,4)</f>
+      <c r="A19" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>3FFF</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>37777</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2335,10 +2365,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F2A982-FB44-FB42-82D9-F855B50E2A0E}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2351,51 +2381,74 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="13" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="13" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="13" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="13" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="13" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="13" t="s">
-        <v>116</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="12" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/argus400/doc/Argus400.xlsx
+++ b/argus400/doc/Argus400.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richarde/Library/Mobile Documents/com~apple~CloudDocs/Documents/Development/git/ferranti-argus/argus400/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00928D3F-AA97-9949-BD8E-2A589ECFD0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435086D3-C4A5-5D41-A6D2-28E89D202735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction Set" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="127">
   <si>
     <t>Opcode</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>Source of Zeroes (and Acc 0)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -669,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -718,6 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,8 +942,8 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1291,10 +1295,10 @@
         <v>30</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>31</v>
@@ -1324,10 +1328,10 @@
         <v>32</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>33</v>
@@ -1357,10 +1361,10 @@
         <v>34</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>35</v>
@@ -1390,10 +1394,10 @@
         <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>37</v>
@@ -1686,7 +1690,9 @@
       <c r="D23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="36" t="s">
+        <v>126</v>
+      </c>
       <c r="F23" s="6" t="s">
         <v>10</v>
       </c>
@@ -1783,10 +1789,12 @@
       <c r="D26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="6"/>
+      <c r="E26" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G26" s="6" t="s">
         <v>61</v>
       </c>
@@ -2367,7 +2375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F2A982-FB44-FB42-82D9-F855B50E2A0E}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/argus400/doc/Argus400.xlsx
+++ b/argus400/doc/Argus400.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richarde/Library/Mobile Documents/com~apple~CloudDocs/Documents/Development/git/ferranti-argus/argus400/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435086D3-C4A5-5D41-A6D2-28E89D202735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B448E657-220C-AE4E-BB1A-D8876D6206A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction Set" sheetId="1" r:id="rId1"/>
@@ -379,9 +379,6 @@
     <t>Use the register's location in the memory map and the MSUB instruction</t>
   </si>
   <si>
-    <t>MSUB &lt;reg&gt;, 0</t>
-  </si>
-  <si>
     <t>The assembler will correctly use the register's memory map location as the address operand in this case</t>
   </si>
   <si>
@@ -416,6 +413,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>MSUB 0, &lt;reg address&gt;</t>
   </si>
 </sst>
 </file>
@@ -713,6 +713,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -721,7 +722,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,7 +942,7 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -997,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>96</v>
@@ -1690,8 +1690,8 @@
       <c r="D23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="36" t="s">
-        <v>126</v>
+      <c r="E23" s="32" t="s">
+        <v>125</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>10</v>
@@ -1724,7 +1724,7 @@
         <v>56</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>10</v>
@@ -1789,8 +1789,8 @@
       <c r="D26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="36" t="s">
-        <v>126</v>
+      <c r="E26" s="32" t="s">
+        <v>125</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>10</v>
@@ -2072,14 +2072,14 @@
       <c r="A37" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
+      <c r="B37" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2100,10 +2100,10 @@
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2157,7 +2157,7 @@
         <v>00000</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -2221,7 +2221,7 @@
         <f>DEC2OCT(5,5)</f>
         <v>00005</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="35" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       <c r="B9" s="19">
         <v>7777</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="str">
@@ -2255,7 +2255,7 @@
       <c r="B11" s="17">
         <v>10001</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="35" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       <c r="B12" s="19">
         <v>10007</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="str">
@@ -2375,8 +2375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F2A982-FB44-FB42-82D9-F855B50E2A0E}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2428,12 +2428,12 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="12" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -2441,22 +2441,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
